--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42973,6 +42973,41 @@
         <v>13772400</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>24219900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43008,6 +43008,41 @@
         <v>24219900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>34979600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43043,6 +43043,41 @@
         <v>34979600</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>7379600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43078,6 +43078,41 @@
         <v>7379600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>7729600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43113,6 +43113,41 @@
         <v>7729600</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>20635200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43148,6 +43148,41 @@
         <v>20635200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>19974300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43183,6 +43183,41 @@
         <v>19974300</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>7655500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43218,6 +43218,41 @@
         <v>7655500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>7308900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43253,6 +43253,41 @@
         <v>7308900</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>7345100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43288,6 +43288,41 @@
         <v>7345100</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>13521300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43323,6 +43323,41 @@
         <v>13521300</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>47159700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43358,6 +43358,41 @@
         <v>47159700</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>31548100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43393,6 +43393,76 @@
         <v>31548100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>28165300</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>24110500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43463,6 +43463,76 @@
         <v>24110500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>17572000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>27750200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43533,6 +43533,41 @@
         <v>27750200</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>10618000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43568,6 +43568,41 @@
         <v>10618000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>9425200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43603,6 +43603,41 @@
         <v>9425200</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>11107400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43638,6 +43638,41 @@
         <v>11107400</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>19648000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43673,6 +43673,76 @@
         <v>19648000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>19454700</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>13181800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43743,6 +43743,41 @@
         <v>13181800</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>10379500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43778,6 +43778,41 @@
         <v>10379500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>17019900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1286"/>
+  <dimension ref="A1:I1287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45388,6 +45388,41 @@
         <v>17019900</v>
       </c>
     </row>
+    <row r="1287">
+      <c r="A1287" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1287" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1287" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1287" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H1287" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>9491900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1287"/>
+  <dimension ref="A1:I1288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45423,6 +45423,41 @@
         <v>9491900</v>
       </c>
     </row>
+    <row r="1288">
+      <c r="A1288" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1288" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1288" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G1288" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1288" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>9736800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1288"/>
+  <dimension ref="A1:I1289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45458,6 +45458,41 @@
         <v>9736800</v>
       </c>
     </row>
+    <row r="1289">
+      <c r="A1289" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1289" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1289" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G1289" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1289" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>6525500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1289"/>
+  <dimension ref="A1:I1290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45493,6 +45493,41 @@
         <v>6525500</v>
       </c>
     </row>
+    <row r="1290">
+      <c r="A1290" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1290" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1290" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1290" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>9440700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1290"/>
+  <dimension ref="A1:I1291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45528,6 +45528,41 @@
         <v>9440700</v>
       </c>
     </row>
+    <row r="1291">
+      <c r="A1291" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1291" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1291" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G1291" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1291" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>16043900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1291"/>
+  <dimension ref="A1:I1292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45563,6 +45563,41 @@
         <v>16043900</v>
       </c>
     </row>
+    <row r="1292">
+      <c r="A1292" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1292" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1292" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1292" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1292" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>3889600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1292"/>
+  <dimension ref="A1:I1293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45598,6 +45598,41 @@
         <v>3889600</v>
       </c>
     </row>
+    <row r="1293">
+      <c r="A1293" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1293" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1293" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1293" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1293" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>13523600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1293"/>
+  <dimension ref="A1:I1294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45633,6 +45633,41 @@
         <v>13523600</v>
       </c>
     </row>
+    <row r="1294">
+      <c r="A1294" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1294" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1294" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1294" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1294" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>18526000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1294"/>
+  <dimension ref="A1:I1295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45668,6 +45668,41 @@
         <v>18526000</v>
       </c>
     </row>
+    <row r="1295">
+      <c r="A1295" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1295" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1295" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1295" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1295" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>10774000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1295"/>
+  <dimension ref="A1:I1296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45703,6 +45703,41 @@
         <v>10774000</v>
       </c>
     </row>
+    <row r="1296">
+      <c r="A1296" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1296" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1296" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>14074400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1296"/>
+  <dimension ref="A1:I1297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45738,6 +45738,41 @@
         <v>14074400</v>
       </c>
     </row>
+    <row r="1297">
+      <c r="A1297" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1297" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1297" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>9801700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1297"/>
+  <dimension ref="A1:I1298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45773,6 +45773,41 @@
         <v>9801700</v>
       </c>
     </row>
+    <row r="1298">
+      <c r="A1298" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1298" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1298" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>18250400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1298"/>
+  <dimension ref="A1:I1299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45808,6 +45808,41 @@
         <v>18250400</v>
       </c>
     </row>
+    <row r="1299">
+      <c r="A1299" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1299" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1299" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>30744300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1299"/>
+  <dimension ref="A1:I1300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45843,6 +45843,41 @@
         <v>30744300</v>
       </c>
     </row>
+    <row r="1300">
+      <c r="A1300" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1300" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1300" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H1300" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>14595500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1300"/>
+  <dimension ref="A1:I1301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45878,6 +45878,41 @@
         <v>14595500</v>
       </c>
     </row>
+    <row r="1301">
+      <c r="A1301" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1301" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1301" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1301" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1301" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>8811200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1301"/>
+  <dimension ref="A1:I1302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45913,6 +45913,41 @@
         <v>8811200</v>
       </c>
     </row>
+    <row r="1302">
+      <c r="A1302" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1302" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1302" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1302" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1302" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>16503300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1302"/>
+  <dimension ref="A1:I1303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45948,6 +45948,41 @@
         <v>16503300</v>
       </c>
     </row>
+    <row r="1303">
+      <c r="A1303" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1303" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1303" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1303" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H1303" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>52784200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1303"/>
+  <dimension ref="A1:I1304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45983,6 +45983,41 @@
         <v>52784200</v>
       </c>
     </row>
+    <row r="1304">
+      <c r="A1304" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1304" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1304" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1304" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1304" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>26501100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1304"/>
+  <dimension ref="A1:I1305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46018,6 +46018,41 @@
         <v>26501100</v>
       </c>
     </row>
+    <row r="1305">
+      <c r="A1305" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1305" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1305" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H1305" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>12971800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1305"/>
+  <dimension ref="A1:I1306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46053,6 +46053,41 @@
         <v>12971800</v>
       </c>
     </row>
+    <row r="1306">
+      <c r="A1306" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1306" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1306" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1306" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>9368300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1306"/>
+  <dimension ref="A1:I1307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46088,6 +46088,41 @@
         <v>9368300</v>
       </c>
     </row>
+    <row r="1307">
+      <c r="A1307" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1307" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1307" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1307" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>12188200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1307"/>
+  <dimension ref="A1:I1308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46123,6 +46123,41 @@
         <v>12188200</v>
       </c>
     </row>
+    <row r="1308">
+      <c r="A1308" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1308" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1308" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G1308" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1308" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>18826100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1308"/>
+  <dimension ref="A1:I1309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46158,6 +46158,41 @@
         <v>18826100</v>
       </c>
     </row>
+    <row r="1309">
+      <c r="A1309" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1309" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1309" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G1309" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1309" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>36978400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1309"/>
+  <dimension ref="A1:I1310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46193,6 +46193,41 @@
         <v>36978400</v>
       </c>
     </row>
+    <row r="1310">
+      <c r="A1310" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1310" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1310" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G1310" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1310" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>36225000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1310"/>
+  <dimension ref="A1:I1311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46228,6 +46228,41 @@
         <v>36225000</v>
       </c>
     </row>
+    <row r="1311">
+      <c r="A1311" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1311" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1311" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1311" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1311" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>50817800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1311"/>
+  <dimension ref="A1:I1313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46263,6 +46263,76 @@
         <v>50817800</v>
       </c>
     </row>
+    <row r="1312">
+      <c r="A1312" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1312" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1312" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>34538800</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1313" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1313" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G1313" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>16853600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1313"/>
+  <dimension ref="A1:I1314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46333,6 +46333,41 @@
         <v>16853600</v>
       </c>
     </row>
+    <row r="1314">
+      <c r="A1314" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1314" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1314" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G1314" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>32633700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1314"/>
+  <dimension ref="A1:I1317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46368,6 +46368,111 @@
         <v>32633700</v>
       </c>
     </row>
+    <row r="1315">
+      <c r="A1315" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1315" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>27583000</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1316" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1316" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>10513700</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1317" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1317" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G1317" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>19794500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1317"/>
+  <dimension ref="A1:I1318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46473,6 +46473,41 @@
         <v>19794500</v>
       </c>
     </row>
+    <row r="1318">
+      <c r="A1318" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1318" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1318" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G1318" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>13504500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1318"/>
+  <dimension ref="A1:I1319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46508,6 +46508,41 @@
         <v>13504500</v>
       </c>
     </row>
+    <row r="1319">
+      <c r="A1319" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1319" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1319" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1319" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>67266300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0176.xlsx
+++ b/data/0176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1319"/>
+  <dimension ref="A1:I1322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46543,6 +46543,111 @@
         <v>67266300</v>
       </c>
     </row>
+    <row r="1320">
+      <c r="A1320" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1320" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1320" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G1320" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>41944900</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1321" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1321" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1321" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>14185100</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="D1322" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="E1322" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G1322" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>35138000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
